--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B6EEA4-1184-4561-8A45-28CBC97770E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6E9378-B521-4D1C-91EE-60474D043B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FC6C82A0-E3E2-4ECF-9419-8E8CEC2B5964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60A58D74-03C0-4C42-A5BD-53441A6F642E}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Test Plan</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>10% Volume</t>
-  </si>
-  <si>
-    <t>R01</t>
   </si>
   <si>
     <t>Yes</t>
@@ -616,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C71164E-8D04-4CCD-AAA7-5820A2FEEB60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C44D6A-C1AB-40BC-A32D-FC409A1EE8A1}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -654,14 +651,14 @@
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEBE3D7-98FC-49C1-A2D4-B55B502D4FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6A0230-1602-4968-A3B8-B88E6DDD516F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -695,7 +692,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -706,32 +703,32 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>8086</v>
@@ -739,32 +736,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>1</v>
@@ -772,10 +769,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -783,10 +780,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -794,10 +791,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>1</v>
@@ -805,21 +802,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -827,10 +824,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -842,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD8F9D2-8D00-4D32-8AF0-E0136D971E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DACB65-F4A7-4AF3-AC61-56C437041E18}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -899,34 +896,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2">
         <v>12</v>
@@ -934,34 +931,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2">
         <v>24</v>
@@ -969,34 +966,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="2">
         <v>24</v>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6E9378-B521-4D1C-91EE-60474D043B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875A7597-BE7F-41FF-9426-410C9B896BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60A58D74-03C0-4C42-A5BD-53441A6F642E}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{9F5EB277-EF40-46A3-818A-8F2AE0434888}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>JmeterBinFolderPath</t>
   </si>
   <si>
-    <t>C:\Users\nftuser\Documents\apache-jmeter-5.5\bin</t>
+    <t>C:\Users\nftuser\Documents\apache-jmeter-5.4.3\bin</t>
   </si>
   <si>
     <t>summariser.name</t>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C44D6A-C1AB-40BC-A32D-FC409A1EE8A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D84652F-11B5-4557-B30D-D0F87061AC65}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6A0230-1602-4968-A3B8-B88E6DDD516F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8749F22E-05A4-4B78-8BB6-3666C7250793}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -676,7 +676,7 @@
   <cols>
     <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DACB65-F4A7-4AF3-AC61-56C437041E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AEFECC-9696-47CE-A282-B5AB0256F1D5}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875A7597-BE7F-41FF-9426-410C9B896BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA72CA-572B-469D-B83C-FB60E63187E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{9F5EB277-EF40-46A3-818A-8F2AE0434888}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C109A890-5954-401D-A65E-D7006B1881B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>JmeterBinFolderPath</t>
   </si>
   <si>
-    <t>C:\Users\nftuser\Documents\apache-jmeter-5.4.3\bin</t>
+    <t>C:\Users\nftuser\Documents\apache-jmeter-5.5\bin</t>
   </si>
   <si>
     <t>summariser.name</t>
@@ -613,7 +613,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D84652F-11B5-4557-B30D-D0F87061AC65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BC8BFF-3A7D-412A-ABA3-518F41ABFF5C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -667,7 +668,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8749F22E-05A4-4B78-8BB6-3666C7250793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BC5E3-5CC2-486B-943E-FE2BCF82DB4D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -676,7 +678,7 @@
   <cols>
     <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +841,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AEFECC-9696-47CE-A282-B5AB0256F1D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0E87E0-CFF5-4801-9756-161619AB2532}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA72CA-572B-469D-B83C-FB60E63187E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF8580-D0EB-47D4-8F0E-BA08618FE137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C109A890-5954-401D-A65E-D7006B1881B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66F94D7A-DE04-448A-B9FE-F7C9D8EFD60A}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>Test Plan</t>
   </si>
@@ -109,6 +109,15 @@
     <t>petclinictestplan_Duration</t>
   </si>
   <si>
+    <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan_LoadTest.jmx</t>
+  </si>
+  <si>
+    <t>30% Volume</t>
+  </si>
+  <si>
+    <t>petclinictestplan_LoadTest_Duration</t>
+  </si>
+  <si>
     <t>OperatingSystem</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
   </si>
   <si>
     <t>OwnersRampUp</t>
+  </si>
+  <si>
+    <t>petclinictestplan_LoadTest</t>
   </si>
 </sst>
 </file>
@@ -613,15 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BC8BFF-3A7D-412A-ABA3-518F41ABFF5C}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E52CF99-AF6B-401B-A930-887FFEC68451}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -662,15 +673,31 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BC5E3-5CC2-486B-943E-FE2BCF82DB4D}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698BB80-9EF0-44DE-801A-CE90AB2F66C6}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -705,13 +732,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
+      <c r="C3" s="1">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,62 +746,62 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8086</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8086</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -782,10 +809,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -793,10 +820,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>1</v>
@@ -804,34 +831,45 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -841,15 +879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0E87E0-CFF5-4801-9756-161619AB2532}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9968EB35-D9D9-484F-82F2-4044D4B45CF8}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -899,107 +936,212 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="2">
-        <v>24</v>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF8580-D0EB-47D4-8F0E-BA08618FE137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6A6785-DCDE-4BEA-867E-2DB5F13DEE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66F94D7A-DE04-448A-B9FE-F7C9D8EFD60A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06B996E5-1349-43C4-B72B-1EA1DE9C02D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Test Plan</t>
   </si>
@@ -94,30 +94,6 @@
     <t>Load Generator IP</t>
   </si>
   <si>
-    <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan.jmx</t>
-  </si>
-  <si>
-    <t>10% Volume</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Nil</t>
-  </si>
-  <si>
-    <t>petclinictestplan_Duration</t>
-  </si>
-  <si>
-    <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan_LoadTest.jmx</t>
-  </si>
-  <si>
-    <t>30% Volume</t>
-  </si>
-  <si>
-    <t>petclinictestplan_LoadTest_Duration</t>
-  </si>
-  <si>
     <t>OperatingSystem</t>
   </si>
   <si>
@@ -170,57 +146,6 @@
   </si>
   <si>
     <t>httpclient.socket.https.cps</t>
-  </si>
-  <si>
-    <t>petclinictestplan</t>
-  </si>
-  <si>
-    <t>Home_Page</t>
-  </si>
-  <si>
-    <t>Search_For_Vets</t>
-  </si>
-  <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Home_PageThread</t>
-  </si>
-  <si>
-    <t>Home_PageLoop</t>
-  </si>
-  <si>
-    <t>Home_PagePacing</t>
-  </si>
-  <si>
-    <t>Home_PageRampUp</t>
-  </si>
-  <si>
-    <t>Search_For_VetsThread</t>
-  </si>
-  <si>
-    <t>Search_For_VetsLoop</t>
-  </si>
-  <si>
-    <t>Search_For_VetsPacing</t>
-  </si>
-  <si>
-    <t>Search_For_VetsRampUp</t>
-  </si>
-  <si>
-    <t>OwnersThread</t>
-  </si>
-  <si>
-    <t>OwnersLoop</t>
-  </si>
-  <si>
-    <t>OwnersPacing</t>
-  </si>
-  <si>
-    <t>OwnersRampUp</t>
-  </si>
-  <si>
-    <t>petclinictestplan_LoadTest</t>
   </si>
 </sst>
 </file>
@@ -295,12 +220,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,14 +547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E52CF99-AF6B-401B-A930-887FFEC68451}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F7999D-47CA-413F-B9B7-736ED11F7C18}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -640,55 +562,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -696,8 +591,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698BB80-9EF0-44DE-801A-CE90AB2F66C6}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF89C17-B749-4913-983D-80E3719F657E}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -709,99 +604,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
-        <v>120</v>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>160</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8086</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8086</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -809,10 +704,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -820,56 +715,34 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -879,270 +752,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9968EB35-D9D9-484F-82F2-4044D4B45CF8}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297D5ED5-ABF1-4D62-9CAE-31191A7BE0BC}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="2">
-        <v>72</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6A6785-DCDE-4BEA-867E-2DB5F13DEE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD5A74-ABF3-4E0C-92FF-7B0C9C4D811E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06B996E5-1349-43C4-B72B-1EA1DE9C02D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE827B83-AE9E-482A-BF47-3A35951E043A}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>Test Plan</t>
   </si>
@@ -94,6 +94,30 @@
     <t>Load Generator IP</t>
   </si>
   <si>
+    <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan.jmx</t>
+  </si>
+  <si>
+    <t>10% Volume</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>petclinictestplan_Duration</t>
+  </si>
+  <si>
+    <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan_LoadTest.jmx</t>
+  </si>
+  <si>
+    <t>30% Volume</t>
+  </si>
+  <si>
+    <t>petclinictestplan_LoadTest_Duration</t>
+  </si>
+  <si>
     <t>OperatingSystem</t>
   </si>
   <si>
@@ -146,6 +170,57 @@
   </si>
   <si>
     <t>httpclient.socket.https.cps</t>
+  </si>
+  <si>
+    <t>petclinictestplan</t>
+  </si>
+  <si>
+    <t>Home_Page</t>
+  </si>
+  <si>
+    <t>Search_For_Vets</t>
+  </si>
+  <si>
+    <t>Owners</t>
+  </si>
+  <si>
+    <t>Home_PageThread</t>
+  </si>
+  <si>
+    <t>Home_PageLoop</t>
+  </si>
+  <si>
+    <t>Home_PagePacing</t>
+  </si>
+  <si>
+    <t>Home_PageRampUp</t>
+  </si>
+  <si>
+    <t>Search_For_VetsThread</t>
+  </si>
+  <si>
+    <t>Search_For_VetsLoop</t>
+  </si>
+  <si>
+    <t>Search_For_VetsPacing</t>
+  </si>
+  <si>
+    <t>Search_For_VetsRampUp</t>
+  </si>
+  <si>
+    <t>OwnersThread</t>
+  </si>
+  <si>
+    <t>OwnersLoop</t>
+  </si>
+  <si>
+    <t>OwnersPacing</t>
+  </si>
+  <si>
+    <t>OwnersRampUp</t>
+  </si>
+  <si>
+    <t>petclinictestplan_LoadTest</t>
   </si>
 </sst>
 </file>
@@ -220,9 +295,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F7999D-47CA-413F-B9B7-736ED11F7C18}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E51CD3-49F7-42EB-864A-E864556DDAAD}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -562,28 +640,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -591,8 +696,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF89C17-B749-4913-983D-80E3719F657E}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BF389C-3B22-40CE-AEA3-3507DF3D3EAF}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -604,99 +709,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
+      <c r="C2" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8086</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8086</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -704,10 +809,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -715,34 +820,56 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -752,73 +879,270 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297D5ED5-ABF1-4D62-9CAE-31191A7BE0BC}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76251C1-5707-4F2E-B4E2-DA6841426C70}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="2">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD5A74-ABF3-4E0C-92FF-7B0C9C4D811E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A0949E-47C1-4C3B-A405-0A9200B6CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE827B83-AE9E-482A-BF47-3A35951E043A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A511071-CA71-4E3A-ACFE-72AEFDE01A65}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E51CD3-49F7-42EB-864A-E864556DDAAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E9D6E-9150-4945-BEE1-117E8D920E45}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BF389C-3B22-40CE-AEA3-3507DF3D3EAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7CDFC0-2F9D-47A1-AE29-262B4B336343}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -738,7 +738,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76251C1-5707-4F2E-B4E2-DA6841426C70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCC47F5-30B5-4958-BB95-703D711EFD50}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A0949E-47C1-4C3B-A405-0A9200B6CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9128F865-A1B5-4A25-BE1B-FFCE8D4F3112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A511071-CA71-4E3A-ACFE-72AEFDE01A65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9CE7C5A2-AC84-43C6-AB52-43F0DF2C7332}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E9D6E-9150-4945-BEE1-117E8D920E45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54716D1A-7C3C-4458-A632-5B5CCAFAA12C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7CDFC0-2F9D-47A1-AE29-262B4B336343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18711DC1-90A3-4FA7-BDC7-AE5A628552BA}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -738,7 +738,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCC47F5-30B5-4958-BB95-703D711EFD50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343E45D0-EF1E-4708-808C-0B979926E087}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9128F865-A1B5-4A25-BE1B-FFCE8D4F3112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C71F6B-F09A-490D-8621-EFE185BF4B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9CE7C5A2-AC84-43C6-AB52-43F0DF2C7332}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC9E65FC-7B15-4EE5-8478-251BEE47A3AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Test Plan</t>
   </si>
@@ -109,15 +109,6 @@
     <t>petclinictestplan_Duration</t>
   </si>
   <si>
-    <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan_LoadTest.jmx</t>
-  </si>
-  <si>
-    <t>30% Volume</t>
-  </si>
-  <si>
-    <t>petclinictestplan_LoadTest_Duration</t>
-  </si>
-  <si>
     <t>OperatingSystem</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
   </si>
   <si>
     <t>OwnersRampUp</t>
-  </si>
-  <si>
-    <t>petclinictestplan_LoadTest</t>
   </si>
 </sst>
 </file>
@@ -625,14 +613,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54716D1A-7C3C-4458-A632-5B5CCAFAA12C}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F86F7-23E0-4871-8384-35D4BD83E831}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -673,31 +662,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18711DC1-90A3-4FA7-BDC7-AE5A628552BA}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4803B8-4415-4D9E-855D-CFC5E85EAD08}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -727,18 +700,18 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,62 +719,62 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8086</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8086</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -809,10 +782,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -820,10 +793,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>1</v>
@@ -831,45 +804,34 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -879,14 +841,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343E45D0-EF1E-4708-808C-0B979926E087}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6546E70C-424D-40C0-B568-39A28E274370}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -936,212 +899,107 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="2">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C71F6B-F09A-490D-8621-EFE185BF4B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5438C4C-D530-4872-98BE-AA35EA514743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC9E65FC-7B15-4EE5-8478-251BEE47A3AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69DC1CBA-E5C3-44A4-A0E5-3EBD601A47CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan.jmx</t>
   </si>
   <si>
-    <t>10% Volume</t>
+    <t>30% Volume</t>
   </si>
   <si>
     <t>Yes</t>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F86F7-23E0-4871-8384-35D4BD83E831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1374411-3DC8-421C-8E94-C2408FF0291B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4803B8-4415-4D9E-855D-CFC5E85EAD08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98593928-E714-47F5-840A-B61B6748EA5D}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6546E70C-424D-40C0-B568-39A28E274370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C126EEEA-2D9D-4A64-88D4-4B86982711F9}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -911,13 +911,13 @@
         <v>45</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>47</v>
@@ -929,7 +929,7 @@
         <v>48</v>
       </c>
       <c r="K2" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -946,13 +946,13 @@
         <v>49</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>51</v>
@@ -964,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="K3" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,13 +981,13 @@
         <v>53</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>55</v>
@@ -999,7 +999,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5438C4C-D530-4872-98BE-AA35EA514743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8EA8C1-8737-42BD-AF39-D8D2A1951273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69DC1CBA-E5C3-44A4-A0E5-3EBD601A47CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AED72603-FB76-4C90-9197-9749FF1C3759}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan.jmx</t>
   </si>
   <si>
-    <t>30% Volume</t>
+    <t>10% Volume</t>
   </si>
   <si>
     <t>Yes</t>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1374411-3DC8-421C-8E94-C2408FF0291B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFE2E6A-5458-4551-BB39-DE02727AD283}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98593928-E714-47F5-840A-B61B6748EA5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6172F8EA-0542-4414-8793-F86A63FEAB5F}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C126EEEA-2D9D-4A64-88D4-4B86982711F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15419AE7-9B66-4D7E-8089-269DF978C4A6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -911,13 +911,13 @@
         <v>45</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>47</v>
@@ -929,7 +929,7 @@
         <v>48</v>
       </c>
       <c r="K2" s="2">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -946,13 +946,13 @@
         <v>49</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>51</v>
@@ -964,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="K3" s="2">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,13 +981,13 @@
         <v>53</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>55</v>
@@ -999,7 +999,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="2">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8EA8C1-8737-42BD-AF39-D8D2A1951273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42712DC9-2FE9-4054-B16F-B8140F787FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AED72603-FB76-4C90-9197-9749FF1C3759}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AA47550-61AE-4374-9026-AB03F484EFB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Scripts\petclinictestplan.jmx</t>
   </si>
   <si>
-    <t>10% Volume</t>
+    <t>30% Volume</t>
   </si>
   <si>
     <t>Yes</t>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFE2E6A-5458-4551-BB39-DE02727AD283}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCB3EA7-81E1-4F76-83B2-97F5D6C0599E}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6172F8EA-0542-4414-8793-F86A63FEAB5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6043A0-D348-45EC-B605-D7A4C410B9AD}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15419AE7-9B66-4D7E-8089-269DF978C4A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E460E1FB-1DCB-4C91-9E60-61A5DBD75AD7}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -911,13 +911,13 @@
         <v>45</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>47</v>
@@ -929,7 +929,7 @@
         <v>48</v>
       </c>
       <c r="K2" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -946,13 +946,13 @@
         <v>49</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>51</v>
@@ -964,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="K3" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,13 +981,13 @@
         <v>53</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>55</v>
@@ -999,7 +999,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42712DC9-2FE9-4054-B16F-B8140F787FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21665478-3D6A-4452-8C19-78519C9627F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AA47550-61AE-4374-9026-AB03F484EFB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{974708C5-503E-4108-AE0C-AAA4230163CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCB3EA7-81E1-4F76-83B2-97F5D6C0599E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EC2C4E-CF6D-4686-A4D0-6F99C85E1AEC}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6043A0-D348-45EC-B605-D7A4C410B9AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC2554-412C-4BD8-9D3A-C49CC25E6C83}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E460E1FB-1DCB-4C91-9E60-61A5DBD75AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298126C-9B58-4967-A679-FEF760B3142B}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -929,7 +929,7 @@
         <v>48</v>
       </c>
       <c r="K2" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="K3" s="2">
-        <v>72</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>55</v>
@@ -999,7 +999,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="2">
-        <v>72</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21665478-3D6A-4452-8C19-78519C9627F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BDA953-25A0-4078-927B-B999CE1B111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{974708C5-503E-4108-AE0C-AAA4230163CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01ED1D59-C367-4DA3-8211-D1CFDB72C250}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -613,8 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EC2C4E-CF6D-4686-A4D0-6F99C85E1AEC}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4591B496-A063-4C3A-B8E1-6802FA4F5520}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -668,8 +667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC2554-412C-4BD8-9D3A-C49CC25E6C83}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4CBB23-4B0B-45BC-9CE6-E77E2122C076}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -700,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,8 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298126C-9B58-4967-A679-FEF760B3142B}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8CC4AC-F26E-4CCE-B5CB-2F20B2C8A1DE}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BDA953-25A0-4078-927B-B999CE1B111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67510DC-377D-4AE5-B841-FFCBF2F913FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01ED1D59-C367-4DA3-8211-D1CFDB72C250}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{348D7E79-4DBB-4040-ACD5-492BC90212F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,39 +328,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -412,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -523,13 +523,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -538,6 +531,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -602,18 +602,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4591B496-A063-4C3A-B8E1-6802FA4F5520}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17E5482-FD70-4EA4-AB22-39EDA89A0115}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -667,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4CBB23-4B0B-45BC-9CE6-E77E2122C076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727E91B6-1852-4867-B23F-766B6F080484}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -698,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8CC4AC-F26E-4CCE-B5CB-2F20B2C8A1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B22774-E5D5-4F00-9651-66A16C9D25BC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67510DC-377D-4AE5-B841-FFCBF2F913FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFBD4BE-105F-4E69-833E-F02D232B4D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{348D7E79-4DBB-4040-ACD5-492BC90212F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4289502D-67B5-46B9-BA9E-630F65EA556E}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17E5482-FD70-4EA4-AB22-39EDA89A0115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F966E17-56C7-4BF9-94C9-EEAE31741516}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727E91B6-1852-4867-B23F-766B6F080484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95130E3-460F-4D8C-9DDE-59DA109D059F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -718,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B22774-E5D5-4F00-9651-66A16C9D25BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB071BC-338E-46ED-9537-0EB37EB73ABB}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFBD4BE-105F-4E69-833E-F02D232B4D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A31FDA-65F9-45D6-8683-9CC6A1421874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4289502D-67B5-46B9-BA9E-630F65EA556E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18AF23C5-769F-4A49-950C-64874D41E12A}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F966E17-56C7-4BF9-94C9-EEAE31741516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2A0BE-CAAD-42E2-9713-0C43A905B29B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95130E3-460F-4D8C-9DDE-59DA109D059F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE771D5-278A-45EE-A6A3-8DC69909107D}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB071BC-338E-46ED-9537-0EB37EB73ABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CFD3E1-F558-4D11-B75C-4CE7040E2212}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A31FDA-65F9-45D6-8683-9CC6A1421874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7313EC1-6676-4191-AF7E-6B7B9A03E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18AF23C5-769F-4A49-950C-64874D41E12A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B85A8C4-ADFA-442D-B74A-5EC9AAB9D1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2A0BE-CAAD-42E2-9713-0C43A905B29B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA94603-55AF-4B65-889A-706A8307D688}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE771D5-278A-45EE-A6A3-8DC69909107D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C5839-76C7-495B-A2C5-9B8122413493}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CFD3E1-F558-4D11-B75C-4CE7040E2212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E540238C-AD46-4297-8B92-738C2BFF9711}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
+++ b/Framework_Inputs/Master_Workbook/Master_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\Master_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7313EC1-6676-4191-AF7E-6B7B9A03E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABAA3A9-53EC-42DD-AC85-6153E973C984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B85A8C4-ADFA-442D-B74A-5EC9AAB9D1AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{41832FEF-C2A8-455E-8D14-798D0A4A2145}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA94603-55AF-4B65-889A-706A8307D688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57812F-9CE1-4342-8B7C-195B9AC2A114}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C5839-76C7-495B-A2C5-9B8122413493}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC9791D-B1AE-41F2-9E46-252C498F7911}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E540238C-AD46-4297-8B92-738C2BFF9711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560B5CBC-B9E9-42F7-A272-A86DC630A2C5}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
